--- a/Src/test-res/mount_ms/绘图.xlsx
+++ b/Src/test-res/mount_ms/绘图.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProject-Temp\Project.HoitOS\HoitOS\Src\test-res\mount_ms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC24066C-97FB-4174-B31A-8466FD8BF191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBA37B9-ED58-485E-9B7E-94F951FDF49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>mount - 50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mount - 67%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -48,6 +44,22 @@
   </si>
   <si>
     <t>spiffs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mount-50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mount-80%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mount-60%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mount - 60%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,10 +114,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -121,6 +133,1172 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>挂载耗时对比图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hoitfs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$106:$D$106</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>mount-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mount-60%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mount-80%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$107:$D$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50.166699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.941400000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.166899999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38BA-4286-99A9-1EA5DAFCD96E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$108</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hoitfs-opt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$106:$D$106</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>mount-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mount-60%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mount-80%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$108:$D$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>52.630699999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.994199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.6693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-38BA-4286-99A9-1EA5DAFCD96E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$109</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>spiffs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$106:$D$106</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>mount-50%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mount-60%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mount-80%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$109:$D$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.2398999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9866999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-38BA-4286-99A9-1EA5DAFCD96E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1399508287"/>
+        <c:axId val="1399501631"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1399508287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>挂载参数（数据占有百分比）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1399501631"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1399501631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时延 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1399508287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00CC7194-14F0-419C-B67A-695D250098C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,2396 +1564,3049 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="K116" sqref="K116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
       <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>57.79</v>
+        <v>50</v>
       </c>
       <c r="B3">
-        <v>51.15</v>
+        <v>51.96</v>
       </c>
       <c r="C3">
-        <v>10.16</v>
+        <v>9.16</v>
+      </c>
+      <c r="D3">
+        <v>55.09</v>
       </c>
       <c r="E3">
-        <v>60.1</v>
+        <v>52.74</v>
       </c>
       <c r="F3">
-        <v>5.85</v>
+        <v>3.53</v>
+      </c>
+      <c r="G3">
+        <v>61.31</v>
       </c>
       <c r="H3">
-        <v>51.04</v>
+        <v>38.770000000000003</v>
       </c>
       <c r="I3">
-        <v>20.100000000000001</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>66.41</v>
+        <v>54.83</v>
       </c>
       <c r="B4">
-        <v>66.5</v>
+        <v>47.78</v>
       </c>
       <c r="C4">
-        <v>8.23</v>
+        <v>12.03</v>
+      </c>
+      <c r="D4">
+        <v>49.24</v>
       </c>
       <c r="E4">
-        <v>58.43</v>
+        <v>49.95</v>
       </c>
       <c r="F4">
-        <v>8.2899999999999991</v>
+        <v>9.11</v>
+      </c>
+      <c r="G4">
+        <v>47.26</v>
       </c>
       <c r="H4">
-        <v>58.51</v>
+        <v>53.72</v>
       </c>
       <c r="I4">
-        <v>8.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>66.47</v>
+        <v>51.71</v>
       </c>
       <c r="B5">
-        <v>56.3</v>
+        <v>49.15</v>
       </c>
       <c r="C5">
-        <v>9.07</v>
+        <v>3.48</v>
+      </c>
+      <c r="D5">
+        <v>50.24</v>
       </c>
       <c r="E5">
-        <v>48.59</v>
+        <v>59.11</v>
       </c>
       <c r="F5">
-        <v>7.6</v>
+        <v>11.91</v>
+      </c>
+      <c r="G5">
+        <v>64.02</v>
       </c>
       <c r="H5">
-        <v>58.51</v>
+        <v>51.8</v>
       </c>
       <c r="I5">
-        <v>9.0500000000000007</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>66.36</v>
+        <v>50</v>
       </c>
       <c r="B6">
-        <v>56.93</v>
+        <v>49.07</v>
       </c>
       <c r="C6">
-        <v>9.18</v>
+        <v>7.45</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
       </c>
       <c r="E6">
-        <v>58.56</v>
+        <v>59.81</v>
       </c>
       <c r="F6">
-        <v>8.51</v>
+        <v>3.04</v>
+      </c>
+      <c r="G6">
+        <v>44.54</v>
       </c>
       <c r="H6">
-        <v>58.58</v>
+        <v>41.22</v>
       </c>
       <c r="I6">
-        <v>9.18</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>56.47</v>
+        <v>49.94</v>
       </c>
       <c r="B7">
-        <v>68.650000000000006</v>
+        <v>46.85</v>
       </c>
       <c r="C7">
-        <v>9.2100000000000009</v>
+        <v>10.44</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
       </c>
       <c r="E7">
-        <v>58.48</v>
+        <v>50</v>
       </c>
       <c r="F7">
-        <v>7.99</v>
+        <v>3.43</v>
+      </c>
+      <c r="G7">
+        <v>65.650000000000006</v>
       </c>
       <c r="H7">
-        <v>58.72</v>
+        <v>64.91</v>
       </c>
       <c r="I7">
-        <v>9.18</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>76.63</v>
+        <v>54.23</v>
       </c>
       <c r="B8">
-        <v>66.739999999999995</v>
+        <v>50</v>
       </c>
       <c r="C8">
-        <v>7.75</v>
+        <v>3.47</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
       </c>
       <c r="E8">
-        <v>48.58</v>
+        <v>52.66</v>
       </c>
       <c r="F8">
-        <v>8.1199999999999992</v>
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="G8">
+        <v>54.08</v>
       </c>
       <c r="H8">
-        <v>58.24</v>
+        <v>49.35</v>
       </c>
       <c r="I8">
-        <v>9.19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>66.61</v>
+        <v>51.08</v>
       </c>
       <c r="B9">
-        <v>66.650000000000006</v>
+        <v>59.24</v>
       </c>
       <c r="C9">
-        <v>9.18</v>
+        <v>3.48</v>
+      </c>
+      <c r="D9">
+        <v>57.74</v>
       </c>
       <c r="E9">
-        <v>58.69</v>
+        <v>48.18</v>
       </c>
       <c r="F9">
-        <v>8.27</v>
+        <v>11.35</v>
+      </c>
+      <c r="G9">
+        <v>61.99</v>
       </c>
       <c r="H9">
-        <v>58.69</v>
+        <v>43.29</v>
       </c>
       <c r="I9">
-        <v>9.2899999999999991</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>67.42</v>
+        <v>49.64</v>
       </c>
       <c r="B10">
-        <v>58.61</v>
+        <v>50</v>
       </c>
       <c r="C10">
-        <v>9.23</v>
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="D10">
+        <v>48.07</v>
       </c>
       <c r="E10">
-        <v>58.42</v>
+        <v>51.01</v>
       </c>
       <c r="F10">
-        <v>8.2899999999999991</v>
+        <v>3.32</v>
+      </c>
+      <c r="G10">
+        <v>43.99</v>
       </c>
       <c r="H10">
-        <v>48.5</v>
+        <v>49.91</v>
       </c>
       <c r="I10">
-        <v>9.16</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>66.63</v>
+        <v>59.21</v>
       </c>
       <c r="B11">
-        <v>75.17</v>
+        <v>66.959999999999994</v>
       </c>
       <c r="C11">
-        <v>8.2899999999999991</v>
+        <v>11.68</v>
+      </c>
+      <c r="D11">
+        <v>47.64</v>
       </c>
       <c r="E11">
-        <v>58.64</v>
+        <v>48.28</v>
       </c>
       <c r="F11">
-        <v>8.15</v>
+        <v>3.7</v>
+      </c>
+      <c r="G11">
+        <v>60.55</v>
       </c>
       <c r="H11">
-        <v>58.64</v>
+        <v>53.28</v>
       </c>
       <c r="I11">
-        <v>9.26</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>66.19</v>
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>66.42</v>
+        <v>50.63</v>
       </c>
       <c r="C12">
-        <v>8.1</v>
+        <v>3.29</v>
+      </c>
+      <c r="D12">
+        <v>49.91</v>
       </c>
       <c r="E12">
-        <v>58.58</v>
+        <v>48.4</v>
       </c>
       <c r="F12">
-        <v>8.34</v>
+        <v>9.92</v>
+      </c>
+      <c r="G12">
+        <v>52.61</v>
       </c>
       <c r="H12">
-        <v>58.48</v>
+        <v>43.13</v>
       </c>
       <c r="I12">
-        <v>9.1300000000000008</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>66.709999999999994</v>
+        <v>50</v>
       </c>
       <c r="B13">
-        <v>66.540000000000006</v>
+        <v>64.489999999999995</v>
       </c>
       <c r="C13">
-        <v>7.98</v>
+        <v>6.71</v>
+      </c>
+      <c r="D13">
+        <v>49.16</v>
       </c>
       <c r="E13">
-        <v>58.55</v>
+        <v>46.36</v>
       </c>
       <c r="F13">
-        <v>7.93</v>
+        <v>12.36</v>
+      </c>
+      <c r="G13">
+        <v>44.21</v>
       </c>
       <c r="H13">
-        <v>58.37</v>
+        <v>52.25</v>
       </c>
       <c r="I13">
-        <v>9.27</v>
+        <v>13.42</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>66.569999999999993</v>
+        <v>61.88</v>
       </c>
       <c r="B14">
-        <v>76.739999999999995</v>
+        <v>44.35</v>
       </c>
       <c r="C14">
-        <v>7.91</v>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>50.51</v>
       </c>
       <c r="E14">
-        <v>48.54</v>
+        <v>48.4</v>
       </c>
       <c r="F14">
-        <v>7.96</v>
+        <v>3.31</v>
+      </c>
+      <c r="G14">
+        <v>52.74</v>
       </c>
       <c r="H14">
-        <v>48.48</v>
+        <v>46</v>
       </c>
       <c r="I14">
-        <v>9.26</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>66.5</v>
+        <v>54.27</v>
       </c>
       <c r="B15">
-        <v>66.709999999999994</v>
+        <v>64.34</v>
       </c>
       <c r="C15">
-        <v>8.0500000000000007</v>
+        <v>3.54</v>
+      </c>
+      <c r="D15">
+        <v>57.91</v>
       </c>
       <c r="E15">
-        <v>56.35</v>
+        <v>48.66</v>
       </c>
       <c r="F15">
-        <v>7.94</v>
+        <v>3.16</v>
+      </c>
+      <c r="G15">
+        <v>53.39</v>
       </c>
       <c r="H15">
-        <v>58.47</v>
+        <v>49.3</v>
       </c>
       <c r="I15">
-        <v>9.18</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>66.58</v>
+        <v>41.01</v>
       </c>
       <c r="B16">
-        <v>66.790000000000006</v>
+        <v>44.51</v>
       </c>
       <c r="C16">
-        <v>8.0500000000000007</v>
+        <v>3.35</v>
+      </c>
+      <c r="D16">
+        <v>40.76</v>
       </c>
       <c r="E16">
-        <v>56.61</v>
+        <v>50.17</v>
       </c>
       <c r="F16">
-        <v>8.15</v>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>62.34</v>
       </c>
       <c r="H16">
-        <v>48.5</v>
+        <v>37.56</v>
       </c>
       <c r="I16">
-        <v>9.16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>66.41</v>
+        <v>50</v>
       </c>
       <c r="B17">
-        <v>76.36</v>
+        <v>65.33</v>
       </c>
       <c r="C17">
-        <v>8.32</v>
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
       </c>
       <c r="E17">
-        <v>66.52</v>
+        <v>43.32</v>
       </c>
       <c r="F17">
-        <v>8.1</v>
+        <v>11.71</v>
+      </c>
+      <c r="G17">
+        <v>46.25</v>
       </c>
       <c r="H17">
-        <v>56.46</v>
+        <v>50</v>
       </c>
       <c r="I17">
-        <v>9.34</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>76.38</v>
+        <v>54.02</v>
       </c>
       <c r="B18">
-        <v>76.760000000000005</v>
+        <v>43.48</v>
       </c>
       <c r="C18">
-        <v>8.32</v>
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>56.38</v>
       </c>
       <c r="E18">
-        <v>66.680000000000007</v>
+        <v>50</v>
       </c>
       <c r="F18">
-        <v>8.1199999999999992</v>
+        <v>3.58</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
       </c>
       <c r="H18">
-        <v>56.42</v>
+        <v>38.729999999999997</v>
       </c>
       <c r="I18">
-        <v>8.36</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>66.69</v>
+        <v>50.82</v>
       </c>
       <c r="B19">
-        <v>76.5</v>
+        <v>48.97</v>
       </c>
       <c r="C19">
-        <v>8.16</v>
+        <v>3.46</v>
+      </c>
+      <c r="D19">
+        <v>40.81</v>
       </c>
       <c r="E19">
-        <v>76.47</v>
+        <v>60.7</v>
       </c>
       <c r="F19">
-        <v>8.32</v>
+        <v>3.29</v>
+      </c>
+      <c r="G19">
+        <v>64.86</v>
       </c>
       <c r="H19">
-        <v>65.900000000000006</v>
+        <v>50</v>
       </c>
       <c r="I19">
-        <v>7.8</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>66.66</v>
+        <v>42.18</v>
       </c>
       <c r="B20">
-        <v>76.63</v>
+        <v>68.28</v>
       </c>
       <c r="C20">
-        <v>8.23</v>
+        <v>3.46</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
       </c>
       <c r="E20">
-        <v>76.55</v>
+        <v>54.89</v>
       </c>
       <c r="F20">
-        <v>8.1999999999999993</v>
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>58.53</v>
       </c>
       <c r="H20">
-        <v>56.58</v>
+        <v>39.76</v>
       </c>
       <c r="I20">
-        <v>8.26</v>
+        <v>10.66</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>76.540000000000006</v>
+        <v>60.65</v>
       </c>
       <c r="B21">
-        <v>76.36</v>
+        <v>55.19</v>
       </c>
       <c r="C21">
-        <v>8.16</v>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
       </c>
       <c r="E21">
-        <v>66.58</v>
+        <v>41.11</v>
       </c>
       <c r="F21">
-        <v>9.16</v>
+        <v>11.33</v>
+      </c>
+      <c r="G21">
+        <v>40.950000000000003</v>
       </c>
       <c r="H21">
-        <v>66.540000000000006</v>
+        <v>50</v>
       </c>
       <c r="I21">
-        <v>8.2899999999999991</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>66.84</v>
+        <v>50.43</v>
       </c>
       <c r="B22">
-        <v>66.709999999999994</v>
+        <v>43.59</v>
       </c>
       <c r="C22">
-        <v>8.23</v>
+        <v>13.42</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
       </c>
       <c r="E22">
-        <v>66.84</v>
+        <v>55.24</v>
       </c>
       <c r="F22">
-        <v>8.36</v>
+        <v>3.37</v>
+      </c>
+      <c r="G22">
+        <v>50</v>
       </c>
       <c r="H22">
-        <v>66.42</v>
+        <v>50</v>
       </c>
       <c r="I22">
-        <v>8.23</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>66.69</v>
+        <v>51.58</v>
       </c>
       <c r="B23">
-        <v>76.41</v>
+        <v>58.5</v>
       </c>
       <c r="C23">
-        <v>8.0399999999999991</v>
+        <v>3.32</v>
+      </c>
+      <c r="D23">
+        <v>59.8</v>
       </c>
       <c r="E23">
-        <v>76.3</v>
+        <v>41.68</v>
       </c>
       <c r="F23">
-        <v>8.1</v>
+        <v>3.2</v>
+      </c>
+      <c r="G23">
+        <v>64.62</v>
       </c>
       <c r="H23">
-        <v>56.64</v>
+        <v>50</v>
       </c>
       <c r="I23">
-        <v>8.31</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>66.599999999999994</v>
+        <v>48.97</v>
       </c>
       <c r="B24">
-        <v>76.58</v>
+        <v>50</v>
       </c>
       <c r="C24">
-        <v>8.24</v>
+        <v>8.43</v>
+      </c>
+      <c r="D24">
+        <v>58.53</v>
       </c>
       <c r="E24">
-        <v>66.44</v>
+        <v>50</v>
       </c>
       <c r="F24">
-        <v>8.1999999999999993</v>
+        <v>9.4</v>
+      </c>
+      <c r="G24">
+        <v>50.25</v>
       </c>
       <c r="H24">
-        <v>66.72</v>
+        <v>50</v>
       </c>
       <c r="I24">
-        <v>8.26</v>
+        <v>11.01</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>66.27</v>
+        <v>50.78</v>
       </c>
       <c r="B25">
-        <v>55.54</v>
+        <v>65.62</v>
       </c>
       <c r="C25">
-        <v>8.16</v>
+        <v>10.43</v>
+      </c>
+      <c r="D25">
+        <v>49.26</v>
       </c>
       <c r="E25">
-        <v>76.38</v>
+        <v>54.59</v>
       </c>
       <c r="F25">
-        <v>8.1999999999999993</v>
+        <v>10.47</v>
+      </c>
+      <c r="G25">
+        <v>50.63</v>
       </c>
       <c r="H25">
-        <v>56.57</v>
+        <v>60.6</v>
       </c>
       <c r="I25">
-        <v>8.5299999999999994</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>66.72</v>
+        <v>41.03</v>
       </c>
       <c r="B26">
-        <v>64.510000000000005</v>
+        <v>43.15</v>
       </c>
       <c r="C26">
-        <v>7.78</v>
+        <v>3.51</v>
+      </c>
+      <c r="D26">
+        <v>59.49</v>
       </c>
       <c r="E26">
-        <v>76.44</v>
+        <v>42.12</v>
       </c>
       <c r="F26">
-        <v>8.1300000000000008</v>
+        <v>3.28</v>
+      </c>
+      <c r="G26">
+        <v>40.700000000000003</v>
       </c>
       <c r="H26">
-        <v>58.31</v>
+        <v>50.7</v>
       </c>
       <c r="I26">
-        <v>8.1300000000000008</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>66.61</v>
+        <v>50</v>
       </c>
       <c r="B27">
-        <v>56.58</v>
+        <v>50</v>
       </c>
       <c r="C27">
-        <v>8.2100000000000009</v>
+        <v>3.72</v>
+      </c>
+      <c r="D27">
+        <v>50</v>
       </c>
       <c r="E27">
-        <v>76.790000000000006</v>
+        <v>50</v>
       </c>
       <c r="F27">
-        <v>8.09</v>
+        <v>3.4</v>
+      </c>
+      <c r="G27">
+        <v>65.06</v>
       </c>
       <c r="H27">
-        <v>66.58</v>
+        <v>55.46</v>
       </c>
       <c r="I27">
-        <v>8.35</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>66.44</v>
+        <v>52.91</v>
       </c>
       <c r="B28">
-        <v>76.41</v>
+        <v>56.95</v>
       </c>
       <c r="C28">
-        <v>8.26</v>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>50</v>
       </c>
       <c r="E28">
-        <v>66.42</v>
+        <v>50</v>
       </c>
       <c r="F28">
-        <v>8.1999999999999993</v>
+        <v>8.65</v>
+      </c>
+      <c r="G28">
+        <v>49.35</v>
       </c>
       <c r="H28">
-        <v>56.6</v>
+        <v>59.72</v>
       </c>
       <c r="I28">
-        <v>8.1300000000000008</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>66.28</v>
+        <v>51.96</v>
       </c>
       <c r="B29">
-        <v>66.25</v>
+        <v>41.66</v>
       </c>
       <c r="C29">
-        <v>8.1199999999999992</v>
+        <v>13.31</v>
+      </c>
+      <c r="D29">
+        <v>59.87</v>
       </c>
       <c r="E29">
-        <v>66.3</v>
+        <v>60.68</v>
       </c>
       <c r="F29">
-        <v>8.0399999999999991</v>
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>52.2</v>
       </c>
       <c r="H29">
-        <v>56.27</v>
+        <v>55.3</v>
       </c>
       <c r="I29">
-        <v>8.32</v>
+        <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>76.489999999999995</v>
+        <v>50.32</v>
       </c>
       <c r="B30">
-        <v>66.69</v>
+        <v>61.23</v>
       </c>
       <c r="C30">
-        <v>8.0399999999999991</v>
+        <v>3.42</v>
+      </c>
+      <c r="D30">
+        <v>50</v>
       </c>
       <c r="E30">
-        <v>56.42</v>
+        <v>54.02</v>
       </c>
       <c r="F30">
-        <v>7.89</v>
+        <v>3.37</v>
+      </c>
+      <c r="G30">
+        <v>61.12</v>
       </c>
       <c r="H30">
-        <v>66.31</v>
+        <v>43.8</v>
       </c>
       <c r="I30">
-        <v>8.2799999999999994</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>66.25</v>
+        <v>40.6</v>
       </c>
       <c r="B31">
-        <v>66.55</v>
+        <v>47.41</v>
       </c>
       <c r="C31">
-        <v>8.23</v>
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="D31">
+        <v>50</v>
       </c>
       <c r="E31">
-        <v>58.36</v>
+        <v>50.79</v>
       </c>
       <c r="F31">
-        <v>8.32</v>
+        <v>3.48</v>
+      </c>
+      <c r="G31">
+        <v>54.32</v>
       </c>
       <c r="H31">
-        <v>56.57</v>
+        <v>37.85</v>
       </c>
       <c r="I31">
-        <v>8.1199999999999992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>66.19</v>
+        <v>50</v>
       </c>
       <c r="B32">
-        <v>66.349999999999994</v>
+        <v>64.86</v>
       </c>
       <c r="C32">
-        <v>8.07</v>
+        <v>11.19</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
       </c>
       <c r="E32">
-        <v>65.81</v>
+        <v>50</v>
       </c>
       <c r="F32">
-        <v>8.0500000000000007</v>
+        <v>8.31</v>
+      </c>
+      <c r="G32">
+        <v>41.85</v>
       </c>
       <c r="H32">
-        <v>66.39</v>
+        <v>50</v>
       </c>
       <c r="I32">
-        <v>7.99</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>56.27</v>
+        <v>39.68</v>
       </c>
       <c r="B33">
-        <v>66.47</v>
+        <v>43.56</v>
       </c>
       <c r="C33">
-        <v>8.24</v>
+        <v>3.43</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
       </c>
       <c r="E33">
-        <v>66.349999999999994</v>
+        <v>65.38</v>
       </c>
       <c r="F33">
-        <v>7.96</v>
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>50</v>
       </c>
       <c r="H33">
-        <v>66.36</v>
+        <v>48.89</v>
       </c>
       <c r="I33">
-        <v>9.24</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>56.76</v>
+        <v>50</v>
       </c>
       <c r="B34">
-        <v>66.33</v>
+        <v>61.23</v>
       </c>
       <c r="C34">
-        <v>8.23</v>
+        <v>3.42</v>
+      </c>
+      <c r="D34">
+        <v>39.159999999999997</v>
       </c>
       <c r="E34">
-        <v>56.46</v>
+        <v>42.85</v>
       </c>
       <c r="F34">
-        <v>8.31</v>
+        <v>3.48</v>
+      </c>
+      <c r="G34">
+        <v>50</v>
       </c>
       <c r="H34">
-        <v>66.58</v>
+        <v>57.01</v>
       </c>
       <c r="I34">
-        <v>8.4700000000000006</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>66.44</v>
+        <v>38.92</v>
       </c>
       <c r="B35">
-        <v>66.650000000000006</v>
+        <v>53.81</v>
       </c>
       <c r="C35">
-        <v>8.1199999999999992</v>
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>50</v>
       </c>
       <c r="E35">
-        <v>56.61</v>
+        <v>50</v>
       </c>
       <c r="F35">
-        <v>7.94</v>
+        <v>3.27</v>
+      </c>
+      <c r="G35">
+        <v>53.78</v>
       </c>
       <c r="H35">
-        <v>56.47</v>
+        <v>44.57</v>
       </c>
       <c r="I35">
-        <v>8.26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>66.77</v>
+        <v>49.16</v>
       </c>
       <c r="B36">
-        <v>66.459999999999994</v>
+        <v>51.22</v>
       </c>
       <c r="C36">
-        <v>8.24</v>
+        <v>13.2</v>
+      </c>
+      <c r="D36">
+        <v>50</v>
       </c>
       <c r="E36">
-        <v>66.47</v>
+        <v>49.34</v>
       </c>
       <c r="F36">
-        <v>8.18</v>
+        <v>7.94</v>
+      </c>
+      <c r="G36">
+        <v>51</v>
       </c>
       <c r="H36">
-        <v>56.54</v>
+        <v>45.87</v>
       </c>
       <c r="I36">
-        <v>8.23</v>
+        <v>13.36</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>68.5</v>
+        <v>49.51</v>
       </c>
       <c r="B37">
-        <v>66.569999999999993</v>
+        <v>60.7</v>
       </c>
       <c r="C37">
-        <v>8.16</v>
+        <v>3.61</v>
+      </c>
+      <c r="D37">
+        <v>49.68</v>
       </c>
       <c r="E37">
-        <v>56.52</v>
+        <v>52.12</v>
       </c>
       <c r="F37">
-        <v>8.23</v>
+        <v>10.65</v>
+      </c>
+      <c r="G37">
+        <v>50.59</v>
       </c>
       <c r="H37">
-        <v>56.55</v>
+        <v>50</v>
       </c>
       <c r="I37">
-        <v>8.24</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>66.41</v>
+        <v>49.15</v>
       </c>
       <c r="B38">
-        <v>66.66</v>
+        <v>53.99</v>
       </c>
       <c r="C38">
-        <v>8.23</v>
+        <v>8.15</v>
+      </c>
+      <c r="D38">
+        <v>50.25</v>
       </c>
       <c r="E38">
-        <v>56.74</v>
+        <v>44.34</v>
       </c>
       <c r="F38">
-        <v>8.2100000000000009</v>
+        <v>3.5</v>
+      </c>
+      <c r="G38">
+        <v>50</v>
       </c>
       <c r="H38">
-        <v>66.27</v>
+        <v>59.32</v>
       </c>
       <c r="I38">
-        <v>8.91</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>66.52</v>
+        <v>49.26</v>
       </c>
       <c r="B39">
-        <v>65.87</v>
+        <v>42.82</v>
       </c>
       <c r="C39">
-        <v>8.27</v>
+        <v>10.9</v>
+      </c>
+      <c r="D39">
+        <v>48.43</v>
       </c>
       <c r="E39">
-        <v>58.4</v>
+        <v>60.36</v>
       </c>
       <c r="F39">
-        <v>8.18</v>
+        <v>3.24</v>
+      </c>
+      <c r="G39">
+        <v>50</v>
       </c>
       <c r="H39">
-        <v>66.36</v>
+        <v>54</v>
       </c>
       <c r="I39">
-        <v>8.39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>66.760000000000005</v>
+        <v>49.27</v>
       </c>
       <c r="B40">
-        <v>76.569999999999993</v>
+        <v>56.91</v>
       </c>
       <c r="C40">
-        <v>8.31</v>
+        <v>3.78</v>
+      </c>
+      <c r="D40">
+        <v>50.71</v>
       </c>
       <c r="E40">
-        <v>65.73</v>
+        <v>49.48</v>
       </c>
       <c r="F40">
-        <v>8.1199999999999992</v>
+        <v>8.86</v>
+      </c>
+      <c r="G40">
+        <v>50</v>
       </c>
       <c r="H40">
-        <v>66.599999999999994</v>
+        <v>34.67</v>
       </c>
       <c r="I40">
-        <v>8.39</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>66.760000000000005</v>
+        <v>52.58</v>
       </c>
       <c r="B41">
-        <v>66.790000000000006</v>
+        <v>54.05</v>
       </c>
       <c r="C41">
-        <v>8.24</v>
+        <v>3.42</v>
+      </c>
+      <c r="D41">
+        <v>49.13</v>
       </c>
       <c r="E41">
-        <v>58.46</v>
+        <v>49.38</v>
       </c>
       <c r="F41">
-        <v>8.1999999999999993</v>
+        <v>11.23</v>
+      </c>
+      <c r="G41">
+        <v>63.64</v>
       </c>
       <c r="H41">
-        <v>66.5</v>
+        <v>47.83</v>
       </c>
       <c r="I41">
-        <v>8.2100000000000009</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>66.599999999999994</v>
+        <v>51.44</v>
       </c>
       <c r="B42">
-        <v>76.5</v>
+        <v>45.36</v>
       </c>
       <c r="C42">
-        <v>9.2100000000000009</v>
+        <v>9.86</v>
+      </c>
+      <c r="D42">
+        <v>47.17</v>
       </c>
       <c r="E42">
-        <v>66.349999999999994</v>
+        <v>47.9</v>
       </c>
       <c r="F42">
-        <v>8.32</v>
+        <v>3.35</v>
+      </c>
+      <c r="G42">
+        <v>51.52</v>
       </c>
       <c r="H42">
-        <v>66.5</v>
+        <v>58.02</v>
       </c>
       <c r="I42">
-        <v>8.27</v>
+        <v>8.5299999999999994</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>66.739999999999995</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>66.489999999999995</v>
+        <v>65.739999999999995</v>
       </c>
       <c r="C43">
-        <v>8.18</v>
+        <v>12.66</v>
+      </c>
+      <c r="D43">
+        <v>49.45</v>
       </c>
       <c r="E43">
-        <v>57.12</v>
+        <v>49.41</v>
       </c>
       <c r="F43">
-        <v>9</v>
+        <v>3.61</v>
+      </c>
+      <c r="G43">
+        <v>42.22</v>
       </c>
       <c r="H43">
-        <v>66.349999999999994</v>
+        <v>43.72</v>
       </c>
       <c r="I43">
-        <v>8.4</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>66.41</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>66.47</v>
+        <v>54.72</v>
       </c>
       <c r="C44">
-        <v>8.31</v>
+        <v>3.32</v>
+      </c>
+      <c r="D44">
+        <v>49.23</v>
       </c>
       <c r="E44">
-        <v>66.569999999999993</v>
+        <v>49.05</v>
       </c>
       <c r="F44">
-        <v>8.1300000000000008</v>
+        <v>9.75</v>
+      </c>
+      <c r="G44">
+        <v>51.22</v>
       </c>
       <c r="H44">
-        <v>56.45</v>
+        <v>46.34</v>
       </c>
       <c r="I44">
-        <v>8.2899999999999991</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>66.709999999999994</v>
+        <v>50.95</v>
       </c>
       <c r="B45">
-        <v>76.63</v>
+        <v>54.35</v>
       </c>
       <c r="C45">
-        <v>8.09</v>
+        <v>7.59</v>
+      </c>
+      <c r="D45">
+        <v>49.78</v>
       </c>
       <c r="E45">
-        <v>66.58</v>
+        <v>51.42</v>
       </c>
       <c r="F45">
-        <v>8.26</v>
+        <v>11.08</v>
+      </c>
+      <c r="G45">
+        <v>50.51</v>
       </c>
       <c r="H45">
-        <v>48.59</v>
+        <v>37.659999999999997</v>
       </c>
       <c r="I45">
-        <v>8.34</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>66.66</v>
+        <v>50.87</v>
       </c>
       <c r="B46">
-        <v>66.44</v>
+        <v>54.94</v>
       </c>
       <c r="C46">
-        <v>7.99</v>
+        <v>10.73</v>
+      </c>
+      <c r="D46">
+        <v>50</v>
       </c>
       <c r="E46">
-        <v>66.55</v>
+        <v>44.97</v>
       </c>
       <c r="F46">
-        <v>8.27</v>
+        <v>3.43</v>
+      </c>
+      <c r="G46">
+        <v>44.86</v>
       </c>
       <c r="H46">
-        <v>66.95</v>
+        <v>58.42</v>
       </c>
       <c r="I46">
-        <v>8.0500000000000007</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>66.66</v>
+        <v>48.83</v>
       </c>
       <c r="B47">
-        <v>66.61</v>
+        <v>51</v>
       </c>
       <c r="C47">
-        <v>8.26</v>
+        <v>3.59</v>
+      </c>
+      <c r="D47">
+        <v>47.66</v>
       </c>
       <c r="E47">
-        <v>68.55</v>
+        <v>51.33</v>
       </c>
       <c r="F47">
-        <v>8.36</v>
+        <v>3.35</v>
+      </c>
+      <c r="G47">
+        <v>50</v>
       </c>
       <c r="H47">
-        <v>66.42</v>
+        <v>42.97</v>
       </c>
       <c r="I47">
-        <v>8.27</v>
+        <v>12.47</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>66.63</v>
+        <v>55.97</v>
       </c>
       <c r="B48">
-        <v>66.349999999999994</v>
+        <v>43.09</v>
       </c>
       <c r="C48">
-        <v>8.27</v>
+        <v>3.81</v>
+      </c>
+      <c r="D48">
+        <v>50.48</v>
       </c>
       <c r="E48">
-        <v>58.16</v>
+        <v>48.24</v>
       </c>
       <c r="F48">
-        <v>7.94</v>
+        <v>9.4</v>
+      </c>
+      <c r="G48">
+        <v>50</v>
       </c>
       <c r="H48">
-        <v>56.47</v>
+        <v>35.92</v>
       </c>
       <c r="I48">
-        <v>8.07</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>66.72</v>
+        <v>52.93</v>
       </c>
       <c r="B49">
-        <v>66.41</v>
+        <v>50</v>
       </c>
       <c r="C49">
-        <v>8.31</v>
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>50.16</v>
       </c>
       <c r="E49">
-        <v>76.150000000000006</v>
+        <v>47.34</v>
       </c>
       <c r="F49">
-        <v>8.1999999999999993</v>
+        <v>10.63</v>
+      </c>
+      <c r="G49">
+        <v>52.36</v>
       </c>
       <c r="H49">
-        <v>66.47</v>
+        <v>49.21</v>
       </c>
       <c r="I49">
-        <v>8.2899999999999991</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>66.819999999999993</v>
+        <v>46.85</v>
       </c>
       <c r="B50">
-        <v>66.42</v>
+        <v>52.14</v>
       </c>
       <c r="C50">
-        <v>8.4</v>
+        <v>13.29</v>
+      </c>
+      <c r="D50">
+        <v>50</v>
       </c>
       <c r="E50">
-        <v>58.51</v>
+        <v>48.96</v>
       </c>
       <c r="F50">
-        <v>8.09</v>
+        <v>3.23</v>
+      </c>
+      <c r="G50">
+        <v>50.65</v>
       </c>
       <c r="H50">
-        <v>66.3</v>
+        <v>53.43</v>
       </c>
       <c r="I50">
-        <v>8.1300000000000008</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>66.599999999999994</v>
+        <v>47.34</v>
       </c>
       <c r="B51">
-        <v>66.52</v>
+        <v>53.66</v>
       </c>
       <c r="C51">
-        <v>8.27</v>
+        <v>3.64</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
       </c>
       <c r="E51">
-        <v>58.37</v>
+        <v>47.29</v>
       </c>
       <c r="F51">
-        <v>8.1</v>
+        <v>3.23</v>
+      </c>
+      <c r="G51">
+        <v>50.49</v>
       </c>
       <c r="H51">
-        <v>56.68</v>
+        <v>47.74</v>
       </c>
       <c r="I51">
-        <v>8.51</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>66.599999999999994</v>
+        <v>48.53</v>
       </c>
       <c r="B52">
-        <v>66.41</v>
+        <v>41.3</v>
       </c>
       <c r="C52">
-        <v>8.34</v>
+        <v>8.65</v>
+      </c>
+      <c r="D52">
+        <v>58.32</v>
       </c>
       <c r="E52">
-        <v>66.58</v>
+        <v>46.79</v>
       </c>
       <c r="F52">
-        <v>8.26</v>
+        <v>8.51</v>
+      </c>
+      <c r="G52">
+        <v>49.29</v>
       </c>
       <c r="H52">
-        <v>66.22</v>
+        <v>52.74</v>
       </c>
       <c r="I52">
-        <v>8.43</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>66.5</v>
+        <v>50.95</v>
       </c>
       <c r="B53">
-        <v>66.55</v>
+        <v>51.27</v>
       </c>
       <c r="C53">
-        <v>8.1300000000000008</v>
+        <v>10.59</v>
+      </c>
+      <c r="D53">
+        <v>48.39</v>
       </c>
       <c r="E53">
-        <v>76.11</v>
+        <v>50.08</v>
       </c>
       <c r="F53">
-        <v>8.1199999999999992</v>
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>48.92</v>
       </c>
       <c r="H53">
-        <v>66.36</v>
+        <v>47.55</v>
       </c>
       <c r="I53">
-        <v>8.48</v>
+        <v>8.2799999999999994</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>56.71</v>
+        <v>51.01</v>
       </c>
       <c r="B54">
-        <v>66.55</v>
+        <v>50.7</v>
       </c>
       <c r="C54">
-        <v>8.4</v>
+        <v>3.85</v>
+      </c>
+      <c r="D54">
+        <v>50.79</v>
       </c>
       <c r="E54">
-        <v>66.42</v>
+        <v>49.94</v>
       </c>
       <c r="F54">
-        <v>8.1999999999999993</v>
+        <v>3.24</v>
+      </c>
+      <c r="G54">
+        <v>40.68</v>
       </c>
       <c r="H54">
-        <v>56.41</v>
+        <v>44.11</v>
       </c>
       <c r="I54">
-        <v>8.31</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>66.760000000000005</v>
+        <v>50</v>
       </c>
       <c r="B55">
-        <v>66.44</v>
+        <v>44.81</v>
       </c>
       <c r="C55">
-        <v>8.16</v>
+        <v>3.5</v>
+      </c>
+      <c r="D55">
+        <v>59.67</v>
       </c>
       <c r="E55">
-        <v>66.989999999999995</v>
+        <v>51.33</v>
       </c>
       <c r="F55">
-        <v>7.86</v>
+        <v>3.39</v>
+      </c>
+      <c r="G55">
+        <v>50</v>
       </c>
       <c r="H55">
-        <v>56.39</v>
+        <v>49.97</v>
       </c>
       <c r="I55">
-        <v>8.32</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>66.34</v>
+        <v>50</v>
       </c>
       <c r="B56">
-        <v>67.09</v>
+        <v>60.89</v>
       </c>
       <c r="C56">
-        <v>8.15</v>
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>50</v>
       </c>
       <c r="E56">
-        <v>66.33</v>
+        <v>59.26</v>
       </c>
       <c r="F56">
-        <v>8.39</v>
+        <v>7.67</v>
+      </c>
+      <c r="G56">
+        <v>50</v>
       </c>
       <c r="H56">
-        <v>66.760000000000005</v>
+        <v>47.77</v>
       </c>
       <c r="I56">
-        <v>8.1300000000000008</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>66.22</v>
+        <v>50.57</v>
       </c>
       <c r="B57">
-        <v>76.87</v>
+        <v>57.58</v>
       </c>
       <c r="C57">
-        <v>8.24</v>
+        <v>12.86</v>
+      </c>
+      <c r="D57">
+        <v>50</v>
       </c>
       <c r="E57">
-        <v>66.87</v>
+        <v>50</v>
       </c>
       <c r="F57">
-        <v>8.09</v>
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>50.33</v>
       </c>
       <c r="H57">
-        <v>56.49</v>
+        <v>37.15</v>
       </c>
       <c r="I57">
-        <v>8.3699999999999992</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>76.72</v>
+        <v>49.64</v>
       </c>
       <c r="B58">
-        <v>66.88</v>
+        <v>50</v>
       </c>
       <c r="C58">
-        <v>8.3699999999999992</v>
+        <v>3.51</v>
+      </c>
+      <c r="D58">
+        <v>38.53</v>
       </c>
       <c r="E58">
-        <v>50.17</v>
+        <v>58.61</v>
       </c>
       <c r="F58">
-        <v>8.31</v>
+        <v>12.42</v>
+      </c>
+      <c r="G58">
+        <v>54.81</v>
       </c>
       <c r="H58">
-        <v>66.540000000000006</v>
+        <v>59.1</v>
       </c>
       <c r="I58">
-        <v>8.43</v>
+        <v>10.92</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>66.790000000000006</v>
+        <v>47.69</v>
       </c>
       <c r="B59">
-        <v>66.61</v>
+        <v>62.2</v>
       </c>
       <c r="C59">
-        <v>8.1300000000000008</v>
+        <v>8.16</v>
+      </c>
+      <c r="D59">
+        <v>50.68</v>
       </c>
       <c r="E59">
-        <v>56.55</v>
+        <v>59.48</v>
       </c>
       <c r="F59">
-        <v>8.1</v>
+        <v>3.4</v>
+      </c>
+      <c r="G59">
+        <v>41.28</v>
       </c>
       <c r="H59">
-        <v>56.74</v>
+        <v>55.33</v>
       </c>
       <c r="I59">
-        <v>8.58</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>76.569999999999993</v>
+        <v>49.07</v>
       </c>
       <c r="B60">
-        <v>66.349999999999994</v>
+        <v>51.31</v>
       </c>
       <c r="C60">
-        <v>8.16</v>
+        <v>10.210000000000001</v>
+      </c>
+      <c r="D60">
+        <v>48.24</v>
       </c>
       <c r="E60">
-        <v>66.42</v>
+        <v>58.45</v>
       </c>
       <c r="F60">
-        <v>8.23</v>
+        <v>6.79</v>
+      </c>
+      <c r="G60">
+        <v>50</v>
       </c>
       <c r="H60">
-        <v>56.28</v>
+        <v>33.47</v>
       </c>
       <c r="I60">
-        <v>9.2100000000000009</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>66.55</v>
+        <v>37.85</v>
       </c>
       <c r="B61">
-        <v>58.37</v>
+        <v>44.11</v>
       </c>
       <c r="C61">
-        <v>8.2100000000000009</v>
+        <v>3.5</v>
+      </c>
+      <c r="D61">
+        <v>49</v>
       </c>
       <c r="E61">
-        <v>58.34</v>
+        <v>56.44</v>
       </c>
       <c r="F61">
-        <v>8.02</v>
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>50</v>
       </c>
       <c r="H61">
-        <v>66.8</v>
+        <v>48.75</v>
       </c>
       <c r="I61">
-        <v>8.4499999999999993</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>76.84</v>
+        <v>39.21</v>
       </c>
       <c r="B62">
-        <v>66.47</v>
+        <v>69.27</v>
       </c>
       <c r="C62">
-        <v>7.91</v>
+        <v>3.8</v>
+      </c>
+      <c r="D62">
+        <v>48.18</v>
       </c>
       <c r="E62">
-        <v>66.77</v>
+        <v>46.53</v>
       </c>
       <c r="F62">
-        <v>8.18</v>
+        <v>11.52</v>
+      </c>
+      <c r="G62">
+        <v>54.48</v>
       </c>
       <c r="H62">
-        <v>66.489999999999995</v>
+        <v>51.16</v>
       </c>
       <c r="I62">
-        <v>8.4</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>66.27</v>
+        <v>50.7</v>
       </c>
       <c r="B63">
-        <v>66.989999999999995</v>
+        <v>65.13</v>
       </c>
       <c r="C63">
-        <v>8.1</v>
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>49.27</v>
       </c>
       <c r="E63">
-        <v>66.44</v>
+        <v>46.73</v>
       </c>
       <c r="F63">
-        <v>8.09</v>
+        <v>3.37</v>
+      </c>
+      <c r="G63">
+        <v>43.16</v>
       </c>
       <c r="H63">
-        <v>66.36</v>
+        <v>37.56</v>
       </c>
       <c r="I63">
-        <v>8.56</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>66.09</v>
+        <v>47.97</v>
       </c>
       <c r="B64">
-        <v>66.849999999999994</v>
+        <v>43.69</v>
       </c>
       <c r="C64">
-        <v>8.2899999999999991</v>
+        <v>11.98</v>
+      </c>
+      <c r="D64">
+        <v>50.93</v>
       </c>
       <c r="E64">
-        <v>66.77</v>
+        <v>46.57</v>
       </c>
       <c r="F64">
-        <v>8.15</v>
+        <v>3.29</v>
+      </c>
+      <c r="G64">
+        <v>61.06</v>
       </c>
       <c r="H64">
-        <v>56.47</v>
+        <v>39.43</v>
       </c>
       <c r="I64">
-        <v>8.32</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>76.25</v>
+        <v>54.1</v>
       </c>
       <c r="B65">
-        <v>66.09</v>
+        <v>57.82</v>
       </c>
       <c r="C65">
-        <v>8.18</v>
+        <v>3.43</v>
+      </c>
+      <c r="D65">
+        <v>47.74</v>
       </c>
       <c r="E65">
-        <v>66.23</v>
+        <v>37.659999999999997</v>
       </c>
       <c r="F65">
-        <v>8.1300000000000008</v>
+        <v>9.59</v>
+      </c>
+      <c r="G65">
+        <v>52.53</v>
       </c>
       <c r="H65">
-        <v>56.35</v>
+        <v>58.75</v>
       </c>
       <c r="I65">
-        <v>8.34</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>66.09</v>
+        <v>52.01</v>
       </c>
       <c r="B66">
-        <v>66.19</v>
+        <v>40.79</v>
       </c>
       <c r="C66">
-        <v>8.27</v>
+        <v>7.17</v>
+      </c>
+      <c r="D66">
+        <v>47.09</v>
       </c>
       <c r="E66">
-        <v>66.63</v>
+        <v>60.4</v>
       </c>
       <c r="F66">
-        <v>8.1300000000000008</v>
+        <v>10.52</v>
+      </c>
+      <c r="G66">
+        <v>53.58</v>
       </c>
       <c r="H66">
-        <v>66.27</v>
+        <v>66.14</v>
       </c>
       <c r="I66">
-        <v>8.1300000000000008</v>
+        <v>12.28</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66.22</v>
+        <v>59.73</v>
       </c>
       <c r="B67">
-        <v>66.3</v>
+        <v>66.739999999999995</v>
       </c>
       <c r="C67">
-        <v>8.2899999999999991</v>
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>48.13</v>
       </c>
       <c r="E67">
-        <v>66.17</v>
+        <v>48.12</v>
       </c>
       <c r="F67">
-        <v>8.23</v>
+        <v>3.24</v>
+      </c>
+      <c r="G67">
+        <v>60.48</v>
       </c>
       <c r="H67">
-        <v>66.42</v>
+        <v>49.54</v>
       </c>
       <c r="I67">
-        <v>8.34</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>66.569999999999993</v>
+        <v>50</v>
       </c>
       <c r="B68">
-        <v>66.44</v>
+        <v>41.8</v>
       </c>
       <c r="C68">
-        <v>8.1999999999999993</v>
+        <v>3.59</v>
+      </c>
+      <c r="D68">
+        <v>38.54</v>
       </c>
       <c r="E68">
-        <v>66.569999999999993</v>
+        <v>38.130000000000003</v>
       </c>
       <c r="F68">
-        <v>8.1</v>
+        <v>3.28</v>
+      </c>
+      <c r="G68">
+        <v>50.16</v>
       </c>
       <c r="H68">
-        <v>66.11</v>
+        <v>41.65</v>
       </c>
       <c r="I68">
-        <v>8.1999999999999993</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>66.63</v>
+        <v>50</v>
       </c>
       <c r="B69">
-        <v>66.22</v>
+        <v>69.94</v>
       </c>
       <c r="C69">
-        <v>9.16</v>
+        <v>3.56</v>
+      </c>
+      <c r="D69">
+        <v>50</v>
       </c>
       <c r="E69">
-        <v>66.19</v>
+        <v>61.39</v>
       </c>
       <c r="F69">
-        <v>8.09</v>
+        <v>8.65</v>
+      </c>
+      <c r="G69">
+        <v>49.03</v>
       </c>
       <c r="H69">
-        <v>66.23</v>
+        <v>50</v>
       </c>
       <c r="I69">
-        <v>8.27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>76.709999999999994</v>
+        <v>50</v>
       </c>
       <c r="B70">
-        <v>76.31</v>
+        <v>50</v>
       </c>
       <c r="C70">
-        <v>8.2100000000000009</v>
+        <v>9.11</v>
+      </c>
+      <c r="D70">
+        <v>59.57</v>
       </c>
       <c r="E70">
-        <v>66.599999999999994</v>
+        <v>54.41</v>
       </c>
       <c r="F70">
-        <v>8.27</v>
+        <v>10.06</v>
+      </c>
+      <c r="G70">
+        <v>52.1</v>
       </c>
       <c r="H70">
-        <v>66.64</v>
+        <v>57.91</v>
       </c>
       <c r="I70">
-        <v>8.2899999999999991</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>76.489999999999995</v>
+        <v>50</v>
       </c>
       <c r="B71">
-        <v>66.47</v>
+        <v>49.86</v>
       </c>
       <c r="C71">
-        <v>8.32</v>
+        <v>12.06</v>
+      </c>
+      <c r="D71">
+        <v>50</v>
       </c>
       <c r="E71">
-        <v>66.38</v>
+        <v>45.09</v>
       </c>
       <c r="F71">
-        <v>8.09</v>
+        <v>3.42</v>
+      </c>
+      <c r="G71">
+        <v>51.68</v>
       </c>
       <c r="H71">
-        <v>66.69</v>
+        <v>40.729999999999997</v>
       </c>
       <c r="I71">
-        <v>8.32</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>66.349999999999994</v>
+        <v>49.87</v>
       </c>
       <c r="B72">
-        <v>76.5</v>
+        <v>50</v>
       </c>
       <c r="C72">
-        <v>8.2899999999999991</v>
+        <v>3.48</v>
+      </c>
+      <c r="D72">
+        <v>50</v>
       </c>
       <c r="E72">
-        <v>56.23</v>
+        <v>47.36</v>
       </c>
       <c r="F72">
-        <v>8.32</v>
+        <v>3.27</v>
+      </c>
+      <c r="G72">
+        <v>50</v>
       </c>
       <c r="H72">
-        <v>65.92</v>
+        <v>59.27</v>
       </c>
       <c r="I72">
-        <v>8.3699999999999992</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>76.72</v>
+        <v>52.63</v>
       </c>
       <c r="B73">
-        <v>66.55</v>
+        <v>53.62</v>
       </c>
       <c r="C73">
-        <v>8.34</v>
+        <v>7.25</v>
+      </c>
+      <c r="D73">
+        <v>50.2</v>
       </c>
       <c r="E73">
-        <v>56.17</v>
+        <v>52.82</v>
       </c>
       <c r="F73">
-        <v>8.0500000000000007</v>
+        <v>8.36</v>
+      </c>
+      <c r="G73">
+        <v>50</v>
       </c>
       <c r="H73">
-        <v>66.38</v>
+        <v>57.74</v>
       </c>
       <c r="I73">
-        <v>8.16</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>66.63</v>
+        <v>44.22</v>
       </c>
       <c r="B74">
-        <v>66.38</v>
+        <v>52.72</v>
       </c>
       <c r="C74">
-        <v>8.4</v>
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>37.880000000000003</v>
       </c>
       <c r="E74">
-        <v>56.22</v>
+        <v>46.44</v>
       </c>
       <c r="F74">
-        <v>8.2100000000000009</v>
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>50.73</v>
       </c>
       <c r="H74">
-        <v>66.42</v>
+        <v>42.66</v>
       </c>
       <c r="I74">
-        <v>9.19</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>76.61</v>
+        <v>63.05</v>
       </c>
       <c r="B75">
-        <v>66.39</v>
+        <v>40.47</v>
       </c>
       <c r="C75">
-        <v>8.02</v>
+        <v>13.54</v>
+      </c>
+      <c r="D75">
+        <v>49.37</v>
       </c>
       <c r="E75">
-        <v>56.25</v>
+        <v>48.07</v>
       </c>
       <c r="F75">
-        <v>8.23</v>
+        <v>3.39</v>
+      </c>
+      <c r="G75">
+        <v>55.33</v>
       </c>
       <c r="H75">
-        <v>66.33</v>
+        <v>36.85</v>
       </c>
       <c r="I75">
-        <v>9.41</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>76.66</v>
+        <v>53.26</v>
       </c>
       <c r="B76">
-        <v>66.12</v>
+        <v>59.83</v>
       </c>
       <c r="C76">
-        <v>8.3699999999999992</v>
+        <v>3.64</v>
+      </c>
+      <c r="D76">
+        <v>49.91</v>
       </c>
       <c r="E76">
-        <v>66.22</v>
+        <v>47.47</v>
       </c>
       <c r="F76">
-        <v>8.07</v>
+        <v>3.58</v>
+      </c>
+      <c r="G76">
+        <v>49.51</v>
       </c>
       <c r="H76">
-        <v>66.55</v>
+        <v>50</v>
       </c>
       <c r="I76">
-        <v>8.07</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76.540000000000006</v>
+        <v>50.79</v>
       </c>
       <c r="B77">
-        <v>66.33</v>
+        <v>59.7</v>
       </c>
       <c r="C77">
-        <v>8.2100000000000009</v>
+        <v>8.94</v>
+      </c>
+      <c r="D77">
+        <v>48.39</v>
       </c>
       <c r="E77">
-        <v>50.38</v>
+        <v>49.92</v>
       </c>
       <c r="F77">
-        <v>8.18</v>
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="G77">
+        <v>50</v>
       </c>
       <c r="H77">
-        <v>56.44</v>
+        <v>59.95</v>
       </c>
       <c r="I77">
-        <v>8.42</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>76.64</v>
+        <v>58.26</v>
       </c>
       <c r="B78">
-        <v>56.3</v>
+        <v>54.18</v>
       </c>
       <c r="C78">
-        <v>8.16</v>
+        <v>12.5</v>
+      </c>
+      <c r="D78">
+        <v>48.2</v>
       </c>
       <c r="E78">
-        <v>66.650000000000006</v>
+        <v>51.85</v>
       </c>
       <c r="F78">
-        <v>8.1999999999999993</v>
+        <v>10.51</v>
+      </c>
+      <c r="G78">
+        <v>50</v>
       </c>
       <c r="H78">
-        <v>66.14</v>
+        <v>55.46</v>
       </c>
       <c r="I78">
-        <v>8.2899999999999991</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>66.569999999999993</v>
+        <v>49.73</v>
       </c>
       <c r="B79">
-        <v>56.28</v>
+        <v>34.72</v>
       </c>
       <c r="C79">
-        <v>8.26</v>
+        <v>3.56</v>
+      </c>
+      <c r="D79">
+        <v>54.57</v>
       </c>
       <c r="E79">
-        <v>58.53</v>
+        <v>50</v>
       </c>
       <c r="F79">
-        <v>8.26</v>
+        <v>3.37</v>
+      </c>
+      <c r="G79">
+        <v>50</v>
       </c>
       <c r="H79">
-        <v>65.87</v>
+        <v>44.64</v>
       </c>
       <c r="I79">
-        <v>9.14</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>58.35</v>
+        <v>50</v>
       </c>
       <c r="B80">
-        <v>56.84</v>
+        <v>38.67</v>
       </c>
       <c r="C80">
-        <v>8.34</v>
+        <v>7.77</v>
+      </c>
+      <c r="D80">
+        <v>48.84</v>
       </c>
       <c r="E80">
-        <v>66.72</v>
+        <v>50</v>
       </c>
       <c r="F80">
-        <v>8.27</v>
+        <v>3.4</v>
+      </c>
+      <c r="G80">
+        <v>53.2</v>
       </c>
       <c r="H80">
-        <v>56.19</v>
+        <v>47.47</v>
       </c>
       <c r="I80">
-        <v>8.39</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>66.44</v>
+        <v>50</v>
       </c>
       <c r="B81">
-        <v>56.66</v>
+        <v>57.91</v>
       </c>
       <c r="C81">
-        <v>8.23</v>
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>48.72</v>
       </c>
       <c r="E81">
-        <v>68.58</v>
+        <v>50</v>
       </c>
       <c r="F81">
-        <v>8.86</v>
+        <v>8.85</v>
+      </c>
+      <c r="G81">
+        <v>48.88</v>
       </c>
       <c r="H81">
-        <v>49.89</v>
+        <v>47.93</v>
       </c>
       <c r="I81">
-        <v>8.0500000000000007</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>66.760000000000005</v>
+        <v>50</v>
       </c>
       <c r="B82">
-        <v>66.5</v>
+        <v>40.81</v>
       </c>
       <c r="C82">
-        <v>8.18</v>
+        <v>3.78</v>
+      </c>
+      <c r="D82">
+        <v>47.5</v>
       </c>
       <c r="E82">
-        <v>76.25</v>
+        <v>39.43</v>
       </c>
       <c r="F82">
-        <v>8.2100000000000009</v>
+        <v>10.43</v>
+      </c>
+      <c r="G82">
+        <v>51.66</v>
       </c>
       <c r="H82">
-        <v>65.930000000000007</v>
+        <v>53.37</v>
       </c>
       <c r="I82">
-        <v>8.16</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>66.64</v>
+        <v>50</v>
       </c>
       <c r="B83">
-        <v>66.569999999999993</v>
+        <v>50</v>
       </c>
       <c r="C83">
-        <v>8.23</v>
+        <v>3.35</v>
+      </c>
+      <c r="D83">
+        <v>48.45</v>
       </c>
       <c r="E83">
-        <v>66.819999999999993</v>
+        <v>57.63</v>
       </c>
       <c r="F83">
-        <v>8.18</v>
+        <v>3.29</v>
+      </c>
+      <c r="G83">
+        <v>50.44</v>
       </c>
       <c r="H83">
-        <v>66.489999999999995</v>
+        <v>50.92</v>
       </c>
       <c r="I83">
-        <v>7.8</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>76.63</v>
+        <v>50</v>
       </c>
       <c r="B84">
-        <v>66.58</v>
+        <v>62.71</v>
       </c>
       <c r="C84">
-        <v>8.35</v>
+        <v>8.81</v>
+      </c>
+      <c r="D84">
+        <v>50.32</v>
       </c>
       <c r="E84">
-        <v>66.42</v>
+        <v>45.24</v>
       </c>
       <c r="F84">
-        <v>8.32</v>
+        <v>3.32</v>
+      </c>
+      <c r="G84">
+        <v>50</v>
       </c>
       <c r="H84">
-        <v>66.03</v>
+        <v>51.5</v>
       </c>
       <c r="I84">
-        <v>8.42</v>
+        <v>9.15</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>66.3</v>
+        <v>50</v>
       </c>
       <c r="B85">
-        <v>68.5</v>
+        <v>49.52</v>
       </c>
       <c r="C85">
-        <v>8.02</v>
+        <v>11.8</v>
+      </c>
+      <c r="D85">
+        <v>49.89</v>
       </c>
       <c r="E85">
-        <v>66.72</v>
+        <v>46.6</v>
       </c>
       <c r="F85">
-        <v>7.75</v>
+        <v>8.81</v>
+      </c>
+      <c r="G85">
+        <v>54.73</v>
       </c>
       <c r="H85">
-        <v>66.69</v>
+        <v>59.05</v>
       </c>
       <c r="I85">
-        <v>8.4</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>66.8</v>
+        <v>53.94</v>
       </c>
       <c r="B86">
-        <v>66.55</v>
+        <v>53.72</v>
       </c>
       <c r="C86">
-        <v>8.23</v>
+        <v>3.34</v>
+      </c>
+      <c r="D86">
+        <v>41.08</v>
       </c>
       <c r="E86">
-        <v>76.459999999999994</v>
+        <v>45.55</v>
       </c>
       <c r="F86">
-        <v>8.1300000000000008</v>
+        <v>10.81</v>
+      </c>
+      <c r="G86">
+        <v>52.31</v>
       </c>
       <c r="H86">
-        <v>67.03</v>
+        <v>60.95</v>
       </c>
       <c r="I86">
-        <v>1.58</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>66.36</v>
+        <v>49.38</v>
       </c>
       <c r="B87">
-        <v>76.41</v>
+        <v>50</v>
       </c>
       <c r="C87">
-        <v>8.35</v>
+        <v>6.68</v>
+      </c>
+      <c r="D87">
+        <v>50</v>
       </c>
       <c r="E87">
-        <v>66.2</v>
+        <v>38.130000000000003</v>
       </c>
       <c r="F87">
-        <v>8.2100000000000009</v>
+        <v>3.59</v>
+      </c>
+      <c r="G87">
+        <v>40.11</v>
       </c>
       <c r="H87">
-        <v>56.25</v>
+        <v>37.75</v>
       </c>
       <c r="I87">
-        <v>8.02</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>66.3</v>
+        <v>50.14</v>
       </c>
       <c r="B88">
-        <v>66.36</v>
+        <v>64.03</v>
       </c>
       <c r="C88">
-        <v>8.1</v>
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>50</v>
       </c>
       <c r="E88">
-        <v>65.540000000000006</v>
+        <v>39.86</v>
       </c>
       <c r="F88">
-        <v>7.98</v>
+        <v>3.21</v>
+      </c>
+      <c r="G88">
+        <v>60.66</v>
       </c>
       <c r="H88">
-        <v>56.55</v>
+        <v>39.86</v>
       </c>
       <c r="I88">
-        <v>8.2100000000000009</v>
+        <v>9.0500000000000007</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>76.5</v>
+        <v>49.32</v>
       </c>
       <c r="B89">
-        <v>66.33</v>
+        <v>44.7</v>
       </c>
       <c r="C89">
-        <v>8.24</v>
+        <v>3.62</v>
+      </c>
+      <c r="D89">
+        <v>50</v>
       </c>
       <c r="E89">
-        <v>56.33</v>
+        <v>57.74</v>
       </c>
       <c r="F89">
-        <v>8.2799999999999994</v>
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="G89">
+        <v>50.14</v>
       </c>
       <c r="H89">
-        <v>66.23</v>
+        <v>50</v>
       </c>
       <c r="I89">
-        <v>8.4</v>
+        <v>11.66</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>76.680000000000007</v>
+        <v>50.38</v>
       </c>
       <c r="B90">
-        <v>66.58</v>
+        <v>60.48</v>
       </c>
       <c r="C90">
-        <v>8.2899999999999991</v>
+        <v>3.67</v>
+      </c>
+      <c r="D90">
+        <v>50</v>
       </c>
       <c r="E90">
-        <v>66.11</v>
+        <v>46.42</v>
       </c>
       <c r="F90">
-        <v>7.94</v>
+        <v>11.3</v>
+      </c>
+      <c r="G90">
+        <v>52.42</v>
       </c>
       <c r="H90">
-        <v>66.61</v>
+        <v>39.72</v>
       </c>
       <c r="I90">
-        <v>8.16</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>66.72</v>
+        <v>40.24</v>
       </c>
       <c r="B91">
-        <v>55.98</v>
+        <v>49.95</v>
       </c>
       <c r="C91">
-        <v>8.18</v>
+        <v>8.86</v>
+      </c>
+      <c r="D91">
+        <v>50</v>
       </c>
       <c r="E91">
-        <v>56.39</v>
+        <v>44.49</v>
       </c>
       <c r="F91">
-        <v>7.98</v>
+        <v>3.21</v>
+      </c>
+      <c r="G91">
+        <v>42.63</v>
       </c>
       <c r="H91">
-        <v>66.14</v>
+        <v>59.02</v>
       </c>
       <c r="I91">
-        <v>8.43</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>66.739999999999995</v>
+        <v>50</v>
       </c>
       <c r="B92">
-        <v>58.2</v>
+        <v>51.19</v>
       </c>
       <c r="C92">
-        <v>8.2100000000000009</v>
+        <v>11.44</v>
+      </c>
+      <c r="D92">
+        <v>50</v>
       </c>
       <c r="E92">
-        <v>56.28</v>
+        <v>36.520000000000003</v>
       </c>
       <c r="F92">
-        <v>8.1</v>
+        <v>3.51</v>
+      </c>
+      <c r="G92">
+        <v>64.180000000000007</v>
       </c>
       <c r="H92">
-        <v>56.04</v>
+        <v>58.23</v>
       </c>
       <c r="I92">
-        <v>8.26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>66.709999999999994</v>
+        <v>51.41</v>
       </c>
       <c r="B93">
-        <v>58.31</v>
+        <v>49.45</v>
       </c>
       <c r="C93">
-        <v>8.2100000000000009</v>
+        <v>3.51</v>
+      </c>
+      <c r="D93">
+        <v>61.22</v>
       </c>
       <c r="E93">
-        <v>68.37</v>
+        <v>59.49</v>
       </c>
       <c r="F93">
-        <v>8.1</v>
+        <v>9.61</v>
+      </c>
+      <c r="G93">
+        <v>44.43</v>
       </c>
       <c r="H93">
-        <v>56.84</v>
+        <v>45.74</v>
       </c>
       <c r="I93">
-        <v>8.32</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>76.650000000000006</v>
+        <v>50.74</v>
       </c>
       <c r="B94">
-        <v>58.48</v>
+        <v>52.85</v>
       </c>
       <c r="C94">
-        <v>8.2899999999999991</v>
+        <v>6.34</v>
+      </c>
+      <c r="D94">
+        <v>49.76</v>
       </c>
       <c r="E94">
-        <v>66</v>
+        <v>55.85</v>
       </c>
       <c r="F94">
-        <v>8.31</v>
+        <v>12.07</v>
+      </c>
+      <c r="G94">
+        <v>54.41</v>
       </c>
       <c r="H94">
-        <v>56.68</v>
+        <v>44.97</v>
       </c>
       <c r="I94">
-        <v>8.34</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>66.42</v>
+        <v>44.95</v>
       </c>
       <c r="B95">
-        <v>68.2</v>
+        <v>61.47</v>
       </c>
       <c r="C95">
-        <v>8.1300000000000008</v>
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>49.29</v>
       </c>
       <c r="E95">
-        <v>65.87</v>
+        <v>47.25</v>
       </c>
       <c r="F95">
-        <v>8.18</v>
+        <v>3.4</v>
+      </c>
+      <c r="G95">
+        <v>53.99</v>
       </c>
       <c r="H95">
-        <v>66</v>
+        <v>37.119999999999997</v>
       </c>
       <c r="I95">
-        <v>8.0399999999999991</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>66.709999999999994</v>
+        <v>60.54</v>
       </c>
       <c r="B96">
-        <v>58.29</v>
+        <v>54.57</v>
       </c>
       <c r="C96">
-        <v>8.3699999999999992</v>
+        <v>13.4</v>
+      </c>
+      <c r="D96">
+        <v>46</v>
       </c>
       <c r="E96">
-        <v>66.14</v>
+        <v>44.32</v>
       </c>
       <c r="F96">
-        <v>8.1300000000000008</v>
+        <v>3.34</v>
+      </c>
+      <c r="G96">
+        <v>57.63</v>
       </c>
       <c r="H96">
-        <v>56.3</v>
+        <v>50</v>
       </c>
       <c r="I96">
-        <v>8.18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>76.489999999999995</v>
+        <v>52.8</v>
       </c>
       <c r="B97">
-        <v>66.27</v>
+        <v>49.92</v>
       </c>
       <c r="C97">
-        <v>8.26</v>
+        <v>3.45</v>
+      </c>
+      <c r="D97">
+        <v>49.19</v>
       </c>
       <c r="E97">
-        <v>56.5</v>
+        <v>53.32</v>
       </c>
       <c r="F97">
-        <v>7.78</v>
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>61.95</v>
       </c>
       <c r="H97">
-        <v>66.25</v>
+        <v>50</v>
       </c>
       <c r="I97">
-        <v>8.1300000000000008</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>66.72</v>
+        <v>49.87</v>
       </c>
       <c r="B98">
-        <v>58.48</v>
+        <v>46.96</v>
       </c>
       <c r="C98">
-        <v>8.2899999999999991</v>
+        <v>8.07</v>
+      </c>
+      <c r="D98">
+        <v>52.33</v>
       </c>
       <c r="E98">
-        <v>66.790000000000006</v>
+        <v>42.39</v>
       </c>
       <c r="F98">
-        <v>8.1300000000000008</v>
+        <v>12.69</v>
+      </c>
+      <c r="G98">
+        <v>55.49</v>
       </c>
       <c r="H98">
-        <v>66.31</v>
+        <v>56.38</v>
       </c>
       <c r="I98">
-        <v>9.0500000000000007</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>76.63</v>
+        <v>49.76</v>
       </c>
       <c r="B99">
-        <v>76</v>
+        <v>49.65</v>
       </c>
       <c r="C99">
-        <v>8.35</v>
+        <v>10.79</v>
+      </c>
+      <c r="D99">
+        <v>48.84</v>
       </c>
       <c r="E99">
-        <v>76.06</v>
+        <v>50</v>
       </c>
       <c r="F99">
-        <v>8.31</v>
+        <v>3.2</v>
+      </c>
+      <c r="G99">
+        <v>62.09</v>
       </c>
       <c r="H99">
-        <v>56.11</v>
+        <v>44.05</v>
       </c>
       <c r="I99">
-        <v>8.07</v>
+        <v>8.39</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>66.39</v>
+        <v>47.8</v>
       </c>
       <c r="B100">
-        <v>66.2</v>
+        <v>47.45</v>
       </c>
       <c r="C100">
-        <v>8.2100000000000009</v>
+        <v>3.59</v>
+      </c>
+      <c r="D100">
+        <v>49.95</v>
       </c>
       <c r="E100">
-        <v>65.16</v>
+        <v>58.91</v>
       </c>
       <c r="F100">
-        <v>7.77</v>
+        <v>6.96</v>
+      </c>
+      <c r="G100">
+        <v>46.39</v>
       </c>
       <c r="H100">
-        <v>46.52</v>
+        <v>36.93</v>
       </c>
       <c r="I100">
-        <v>8.36</v>
+        <v>10.84</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>76.540000000000006</v>
+        <v>49.84</v>
       </c>
       <c r="B101">
-        <v>66.44</v>
+        <v>47.1</v>
       </c>
       <c r="C101">
-        <v>9.11</v>
+        <v>3.58</v>
+      </c>
+      <c r="D101">
+        <v>51.12</v>
       </c>
       <c r="E101">
-        <v>58.46</v>
+        <v>53.99</v>
       </c>
       <c r="F101">
-        <v>8.27</v>
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>64.8</v>
       </c>
       <c r="H101">
-        <v>66.2</v>
+        <v>57.93</v>
       </c>
       <c r="I101">
-        <v>8.24</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>66.709999999999994</v>
+        <v>47.96</v>
       </c>
       <c r="B102">
-        <v>58.24</v>
+        <v>48.67</v>
       </c>
       <c r="C102">
-        <v>8.2799999999999994</v>
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>48.35</v>
       </c>
       <c r="E102">
-        <v>55.76</v>
+        <v>44.92</v>
       </c>
       <c r="F102">
-        <v>8.3699999999999992</v>
+        <v>13.32</v>
+      </c>
+      <c r="G102">
+        <v>52.8</v>
       </c>
       <c r="H102">
-        <v>56.14</v>
+        <v>30.66</v>
       </c>
       <c r="I102">
-        <v>8.32</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
+      <c r="A103" s="1">
         <f>AVERAGE(A3:A102)</f>
-        <v>68.209700000000026</v>
-      </c>
-      <c r="B103" s="2">
-        <f>AVERAGE(B3:B102)</f>
-        <v>66.605699999999985</v>
-      </c>
-      <c r="C103" s="2">
-        <f>AVERAGE(C3:C102)</f>
-        <v>8.3000999999999987</v>
-      </c>
-      <c r="D103" s="2" t="e">
-        <f>AVERAGE(D3:D102)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E103" s="2">
-        <f>AVERAGE(E3:E102)</f>
-        <v>63.491799999999991</v>
-      </c>
-      <c r="F103" s="2">
-        <f>AVERAGE(F3:F102)</f>
-        <v>8.1499000000000006</v>
-      </c>
-      <c r="G103" s="2" t="e">
-        <f>AVERAGE(G3:G102)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H103" s="2">
-        <f>AVERAGE(H3:H102)</f>
-        <v>61.209099999999992</v>
-      </c>
-      <c r="I103" s="2">
-        <f>AVERAGE(I3:I102)</f>
-        <v>8.5123999999999977</v>
+        <v>50.166699999999999</v>
+      </c>
+      <c r="B103" s="1">
+        <f t="shared" ref="A103:I103" si="0">AVERAGE(B3:B102)</f>
+        <v>52.630699999999976</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="0"/>
+        <v>6.2399000000000004</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="0"/>
+        <v>49.941399999999994</v>
+      </c>
+      <c r="E103" s="1">
+        <f t="shared" si="0"/>
+        <v>49.994199999999999</v>
+      </c>
+      <c r="F103" s="1">
+        <f t="shared" si="0"/>
+        <v>5.9867000000000017</v>
+      </c>
+      <c r="G103" s="1">
+        <f t="shared" si="0"/>
+        <v>52.166899999999998</v>
+      </c>
+      <c r="H103" s="1">
+        <f t="shared" si="0"/>
+        <v>48.669299999999978</v>
+      </c>
+      <c r="I103" s="1">
+        <f t="shared" si="0"/>
+        <v>6.1150999999999991</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107">
+        <v>50.166699999999999</v>
+      </c>
+      <c r="C107">
+        <v>49.941400000000002</v>
+      </c>
+      <c r="D107">
+        <v>52.166899999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108">
+        <v>52.630699999999997</v>
+      </c>
+      <c r="C108">
+        <v>49.994199999999999</v>
+      </c>
+      <c r="D108">
+        <v>48.6693</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109">
+        <v>6.2398999999999996</v>
+      </c>
+      <c r="C109">
+        <v>5.9866999999999999</v>
+      </c>
+      <c r="D109">
+        <v>6.1151</v>
       </c>
     </row>
   </sheetData>
@@ -2787,5 +4618,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>